--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ly86</t>
+  </si>
+  <si>
+    <t>Cd180</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Ly86</t>
-  </si>
-  <si>
-    <t>Cd180</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.718483</v>
+        <v>0.03636833333333334</v>
       </c>
       <c r="H2">
-        <v>8.155448999999999</v>
+        <v>0.109105</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.94307033333333</v>
+        <v>0.6882290000000001</v>
       </c>
       <c r="N2">
-        <v>62.82921099999999</v>
+        <v>2.064687</v>
       </c>
       <c r="O2">
-        <v>0.9411926377228694</v>
+        <v>0.2885525922449623</v>
       </c>
       <c r="P2">
-        <v>0.9411926377228695</v>
+        <v>0.2885525922449623</v>
       </c>
       <c r="Q2">
-        <v>56.93338066897098</v>
+        <v>0.02502974168166667</v>
       </c>
       <c r="R2">
-        <v>512.4004260207389</v>
+        <v>0.225267675135</v>
       </c>
       <c r="S2">
-        <v>0.9411926377228694</v>
+        <v>0.2885525922449623</v>
       </c>
       <c r="T2">
-        <v>0.9411926377228695</v>
+        <v>0.2885525922449623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.718483</v>
+        <v>0.03636833333333334</v>
       </c>
       <c r="H3">
-        <v>8.155448999999999</v>
+        <v>0.109105</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>2.554876</v>
       </c>
       <c r="O3">
-        <v>0.03827249209758267</v>
+        <v>0.3570594926322683</v>
       </c>
       <c r="P3">
-        <v>0.03827249209758267</v>
+        <v>0.3570594926322683</v>
       </c>
       <c r="Q3">
-        <v>2.315128991036</v>
+        <v>0.03097219399777778</v>
       </c>
       <c r="R3">
-        <v>20.836160919324</v>
+        <v>0.27874974598</v>
       </c>
       <c r="S3">
-        <v>0.03827249209758267</v>
+        <v>0.3570594926322683</v>
       </c>
       <c r="T3">
-        <v>0.03827249209758267</v>
+        <v>0.3570594926322683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.718483</v>
+        <v>0.03636833333333334</v>
       </c>
       <c r="H4">
-        <v>8.155448999999999</v>
+        <v>0.109105</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4569343333333333</v>
+        <v>0.8452533333333333</v>
       </c>
       <c r="N4">
-        <v>1.370803</v>
+        <v>2.53576</v>
       </c>
       <c r="O4">
-        <v>0.0205348701795479</v>
+        <v>0.3543879151227694</v>
       </c>
       <c r="P4">
-        <v>0.0205348701795479</v>
+        <v>0.3543879151227694</v>
       </c>
       <c r="Q4">
-        <v>1.242168217283</v>
+        <v>0.03074045497777778</v>
       </c>
       <c r="R4">
-        <v>11.179513955547</v>
+        <v>0.2766640948</v>
       </c>
       <c r="S4">
-        <v>0.0205348701795479</v>
+        <v>0.3543879151227694</v>
       </c>
       <c r="T4">
-        <v>0.0205348701795479</v>
+        <v>0.3543879151227694</v>
       </c>
     </row>
   </sheetData>
